--- a/dashboard-ui/src/components/Research/variables/Variable Definitions RQ2.2_2.3_PH2_eval14.xlsx
+++ b/dashboard-ui/src/components/Research/variables/Variable Definitions RQ2.2_2.3_PH2_eval14.xlsx
@@ -103,7 +103,7 @@
     <t>10probe, 8probe, 6probe, New6</t>
   </si>
   <si>
-    <t>&lt;Attribute&gt; Focus Random Set &lt;x&gt;</t>
+    <t>&lt;Attribute&gt; Random Set &lt;x&gt;</t>
   </si>
   <si>
     <t>Probe-&lt;kdma&gt;-&lt;number&gt;</t>
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -172,9 +172,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,15 +486,15 @@
     <col min="3" max="3" style="4" width="20.14785714285714" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="4" width="42.71928571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="4" width="66.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="51.57642857142857" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="82.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="87" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,7 +529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="31.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -565,7 +562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="146.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="154.5" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -594,7 +591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
